--- a/xls_reports/covid_19_today_data.xlsx
+++ b/xls_reports/covid_19_today_data.xlsx
@@ -85,7 +85,7 @@
     <t>Valle d'Aosta</t>
   </si>
   <si>
-    <t>2022-09-06T17:00:00</t>
+    <t>2022-09-07T17:00:00</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3488251</v>
+        <v>3490984</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>2192952</v>
+        <v>2194491</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -496,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>2027412</v>
+        <v>2028924</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>1829133</v>
+        <v>1830728</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1627019</v>
+        <v>1628089</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1458724</v>
+        <v>1459591</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -552,7 +552,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1436524</v>
+        <v>1437409</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1381088</v>
+        <v>1381898</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -580,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>607911</v>
+        <v>608453</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -594,7 +594,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>563111</v>
+        <v>563603</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -608,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>543503</v>
+        <v>544245</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -622,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>543231</v>
+        <v>543854</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -636,7 +636,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>478374</v>
+        <v>478853</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -650,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>441335</v>
+        <v>441710</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>367168</v>
+        <v>367471</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -678,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>256311</v>
+        <v>256542</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -692,7 +692,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>205348</v>
+        <v>205594</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>180127</v>
+        <v>180291</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -720,7 +720,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>88043</v>
+        <v>88187</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -734,7 +734,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>43807</v>
+        <v>43843</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>

--- a/xls_reports/covid_19_today_data.xlsx
+++ b/xls_reports/covid_19_today_data.xlsx
@@ -85,7 +85,7 @@
     <t>Valle d'Aosta</t>
   </si>
   <si>
-    <t>2022-09-07T17:00:00</t>
+    <t>2022-09-08T17:00:00</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3490984</v>
+        <v>3493538</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>2194491</v>
+        <v>2195926</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -496,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>2028924</v>
+        <v>2030301</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>1830728</v>
+        <v>1832191</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1628089</v>
+        <v>1629015</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1459591</v>
+        <v>1460401</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -552,7 +552,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1437409</v>
+        <v>1438900</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1381898</v>
+        <v>1382823</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -580,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>608453</v>
+        <v>608989</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -594,7 +594,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>563603</v>
+        <v>564043</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -608,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>544245</v>
+        <v>544934</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -622,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>543854</v>
+        <v>544623</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -636,7 +636,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>478853</v>
+        <v>479296</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -650,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>441710</v>
+        <v>442038</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>367471</v>
+        <v>367797</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -678,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>256542</v>
+        <v>256556</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -692,7 +692,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>205594</v>
+        <v>205882</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>180291</v>
+        <v>180475</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -720,7 +720,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>88187</v>
+        <v>88293</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -734,7 +734,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>43843</v>
+        <v>43868</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>

--- a/xls_reports/covid_19_today_data.xlsx
+++ b/xls_reports/covid_19_today_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="covid_19_data_today" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
